--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm\smartHomeAgent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D353E0A-0FCB-4A63-A717-619E66E15167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D895920-0DFA-4D0A-BDB7-F602140269C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,6 @@
     <sheet name="sasha" sheetId="9" r:id="rId5"/>
     <sheet name="雷达图 (百分比) " sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -696,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -720,9 +716,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,10 +851,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'雷达图 (百分比) '!$B$2:$F$2</c:f>
+              <c:f>'雷达图 (百分比) '!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>83.333333333333343</c:v>
                 </c:pt>
@@ -876,6 +869,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.54545454545454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,10 +948,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'雷达图 (百分比) '!$B$3:$F$3</c:f>
+              <c:f>'雷达图 (百分比) '!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>83.333333333333343</c:v>
                 </c:pt>
@@ -970,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.27272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,10 +1045,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'雷达图 (百分比) '!$B$4:$F$4</c:f>
+              <c:f>'雷达图 (百分比) '!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
@@ -1064,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.27272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,236 +1867,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="测试用例与标签"/>
-      <sheetName val="gpt5-测试结果"/>
-      <sheetName val="gpt5-mini"/>
-      <sheetName val="gemini"/>
-      <sheetName val="雷达图"/>
-      <sheetName val="雷达图 (百分比)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Direct Command</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Command Chaining</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Intent Resolution</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Persistence</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Personalization</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>GPT5</v>
-          </cell>
-          <cell r="B2">
-            <v>60</v>
-          </cell>
-          <cell r="C2">
-            <v>68.75</v>
-          </cell>
-          <cell r="D2">
-            <v>50</v>
-          </cell>
-          <cell r="E2">
-            <v>77.777777777777786</v>
-          </cell>
-          <cell r="F2">
-            <v>52.631578947368418</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>GPT5-mini</v>
-          </cell>
-          <cell r="B3">
-            <v>70</v>
-          </cell>
-          <cell r="C3">
-            <v>81.25</v>
-          </cell>
-          <cell r="D3">
-            <v>56.25</v>
-          </cell>
-          <cell r="E3">
-            <v>55.555555555555557</v>
-          </cell>
-          <cell r="F3">
-            <v>42.105263157894733</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Gemini2.5-Pro</v>
-          </cell>
-          <cell r="B4">
-            <v>30</v>
-          </cell>
-          <cell r="C4">
-            <v>18.75</v>
-          </cell>
-          <cell r="D4">
-            <v>12.5</v>
-          </cell>
-          <cell r="E4">
-            <v>33.333333333333329</v>
-          </cell>
-          <cell r="F4">
-            <v>10.526315789473683</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="测试用例与标签"/>
-      <sheetName val="our"/>
-      <sheetName val="one Prompt"/>
-      <sheetName val="sasha"/>
-      <sheetName val="sage"/>
-      <sheetName val="雷达图"/>
-      <sheetName val="雷达图 (百分比)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Direct Command</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Command Chaining</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Intent Resolution</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Persistence</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Personalization</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>our</v>
-          </cell>
-          <cell r="B2">
-            <v>70</v>
-          </cell>
-          <cell r="C2">
-            <v>81.25</v>
-          </cell>
-          <cell r="D2">
-            <v>56.25</v>
-          </cell>
-          <cell r="E2">
-            <v>55.555555555555557</v>
-          </cell>
-          <cell r="F2">
-            <v>42.105263157894733</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>One Prompt</v>
-          </cell>
-          <cell r="B3">
-            <v>60</v>
-          </cell>
-          <cell r="C3">
-            <v>50</v>
-          </cell>
-          <cell r="D3">
-            <v>37.5</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Sasha</v>
-          </cell>
-          <cell r="B4">
-            <v>50</v>
-          </cell>
-          <cell r="C4">
-            <v>50</v>
-          </cell>
-          <cell r="D4">
-            <v>31.25</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>SAGE</v>
-          </cell>
-          <cell r="B5">
-            <v>80</v>
-          </cell>
-          <cell r="C5">
-            <v>75</v>
-          </cell>
-          <cell r="D5">
-            <v>56.25</v>
-          </cell>
-          <cell r="E5">
-            <v>22.222222222222221</v>
-          </cell>
-          <cell r="F5">
-            <v>57.894736842105267</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4071,7 +3843,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +3889,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -4166,7 +3938,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -4214,7 +3986,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -4260,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +4077,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -4353,7 +4125,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -4399,7 +4171,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -4445,7 +4217,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -4491,7 +4263,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -4536,7 +4308,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -4580,7 +4352,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -4625,7 +4397,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -4676,7 +4448,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4727,7 +4499,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
@@ -4778,7 +4550,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -4826,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
@@ -4874,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
@@ -4922,7 +4694,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
@@ -4970,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -5018,7 +4790,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -5066,7 +4838,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
@@ -5114,7 +4886,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
@@ -5162,7 +4934,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
@@ -5213,7 +4985,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -5264,7 +5036,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -5315,7 +5087,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -5366,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
@@ -5417,7 +5189,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
@@ -5468,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -5519,7 +5291,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
@@ -5568,7 +5340,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -5619,7 +5391,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
@@ -5668,7 +5440,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>107</v>
       </c>
@@ -5717,7 +5489,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -5766,7 +5538,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -5820,7 +5592,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -5868,7 +5640,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
@@ -5917,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -5968,7 +5740,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -6017,7 +5789,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -6068,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -6116,7 +5888,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="69" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -6164,7 +5936,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -6212,7 +5984,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -6263,7 +6035,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
@@ -6312,7 +6084,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
@@ -6360,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>35</v>
       </c>
@@ -6409,7 +6181,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -6458,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>31</v>
       </c>
@@ -6621,7 +6393,7 @@
       <c r="J1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -6643,7 +6415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6461,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +6510,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -6786,7 +6558,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -6832,7 +6604,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -6877,7 +6649,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -6925,7 +6697,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -6971,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -7017,7 +6789,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -7063,7 +6835,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -7108,7 +6880,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -7152,7 +6924,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -7197,7 +6969,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -7248,7 +7020,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -7299,7 +7071,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
@@ -7350,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -7398,7 +7170,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
@@ -7446,7 +7218,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
@@ -7494,7 +7266,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
@@ -7542,7 +7314,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -7590,7 +7362,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -7638,7 +7410,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
@@ -7686,7 +7458,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
@@ -7734,7 +7506,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
@@ -7785,7 +7557,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -7836,7 +7608,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -7887,7 +7659,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -7938,7 +7710,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
@@ -7989,7 +7761,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
@@ -8040,7 +7812,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -8091,7 +7863,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
@@ -8140,7 +7912,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -8191,7 +7963,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
@@ -8240,7 +8012,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>107</v>
       </c>
@@ -8289,7 +8061,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -8338,7 +8110,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -8392,7 +8164,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -8440,7 +8212,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
@@ -8489,7 +8261,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -8540,7 +8312,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -8589,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -8640,7 +8412,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -8688,7 +8460,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="69" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -8736,7 +8508,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -8784,7 +8556,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -8835,7 +8607,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
@@ -8884,7 +8656,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +8704,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>35</v>
       </c>
@@ -8981,7 +8753,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -9030,7 +8802,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>31</v>
       </c>
@@ -9192,10 +8964,10 @@
       <c r="I1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -9217,7 +8989,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -9263,7 +9035,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -9312,7 +9084,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -9360,7 +9132,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -9406,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -9451,7 +9223,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -9499,7 +9271,7 @@
         <v>√</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -9545,7 +9317,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -9591,7 +9363,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -9637,7 +9409,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9454,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -9726,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -9771,7 +9543,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -9822,7 +9594,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -9873,7 +9645,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
@@ -9924,7 +9696,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -9972,7 +9744,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>87</v>
       </c>
@@ -10020,7 +9792,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
@@ -10068,7 +9840,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
@@ -10116,7 +9888,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -10164,7 +9936,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -10212,7 +9984,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
@@ -10260,7 +10032,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
@@ -10308,7 +10080,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
@@ -10359,7 +10131,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -10410,7 +10182,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -10461,7 +10233,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -10512,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
@@ -10563,7 +10335,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
@@ -10614,7 +10386,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -10665,7 +10437,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
@@ -10714,7 +10486,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -10765,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
@@ -10814,7 +10586,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>107</v>
       </c>
@@ -10863,7 +10635,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
@@ -10912,7 +10684,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -10966,7 +10738,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -11014,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
@@ -11063,7 +10835,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -11114,7 +10886,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -11163,7 +10935,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -11214,7 +10986,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -11262,7 +11034,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -11310,7 +11082,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -11358,7 +11130,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -11409,7 +11181,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
@@ -11458,7 +11230,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
@@ -11506,7 +11278,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>35</v>
       </c>
@@ -11555,7 +11327,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -11604,7 +11376,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>31</v>
       </c>
@@ -11728,7 +11500,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11739,7 +11511,7 @@
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11946,7 +11718,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:G12" si="1">C7/C10*100</f>
+        <f t="shared" ref="C12:F12" si="1">C7/C10*100</f>
         <v>23.684210526315788</v>
       </c>
       <c r="D12">
@@ -11972,7 +11744,7 @@
         <v>66.666666666666657</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:G13" si="2">C8/C10*100</f>
+        <f t="shared" ref="C13:F13" si="2">C8/C10*100</f>
         <v>5.2631578947368416</v>
       </c>
       <c r="D13">
